--- a/data_prep_code/fishing/Survey_SOU_Key_forsupplement.xlsx
+++ b/data_prep_code/fishing/Survey_SOU_Key_forsupplement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoekitchel/Documents/grad_school/Rutgers/Repositories/trawl_spatial_turnover_git/data_prep_code/fishing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kitchel/Dropbox/Repositories/trawl_spatial_turnover_git/data_prep_code/fishing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06343A9-C1F9-844F-82AC-E79211937431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF633C36-D9D0-9045-8384-07715F6B8F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{ED3D9FAB-137C-9D4F-944B-247B4E993711}"/>
+    <workbookView xWindow="2580" yWindow="3200" windowWidth="28040" windowHeight="16940" xr2:uid="{ED3D9FAB-137C-9D4F-944B-247B4E993711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="100">
   <si>
     <t>Survey</t>
   </si>
@@ -53,9 +52,6 @@
     <t>Baltic Sea Q4</t>
   </si>
   <si>
-    <t>Barents Sea Norway Q1</t>
-  </si>
-  <si>
     <t>Barents Sea Norway Q3</t>
   </si>
   <si>
@@ -158,9 +154,6 @@
     <t>SE US Summer</t>
   </si>
   <si>
-    <t>Sub-Arctic NZ</t>
-  </si>
-  <si>
     <t>W Coast S Island NZ</t>
   </si>
   <si>
@@ -339,19 +332,35 @@
   </si>
   <si>
     <t>LME 3</t>
+  </si>
+  <si>
+    <t>Sub-Antarctic NZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,7 +371,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -379,13 +388,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132C65BA-9224-BD46-8D8E-C433A00E5ECC}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -712,485 +737,476 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" t="s">
-        <v>77</v>
+      <c r="C43" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
